--- a/documents/GraphicalOverview.xlsx
+++ b/documents/GraphicalOverview.xlsx
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -179,9 +179,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -193,6 +191,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -200,6 +209,32 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -213,6 +248,43 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -223,43 +295,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -268,60 +354,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J15:AH19"/>
+  <dimension ref="J14:AH19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,208 +735,209 @@
     <col min="12" max="34" width="5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="14" spans="10:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="10:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="5"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="10"/>
     </row>
     <row r="16" spans="10:34" x14ac:dyDescent="0.25">
-      <c r="J16" s="18">
+      <c r="J16" s="11">
         <v>0</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="6">
         <v>1</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="6">
         <v>2</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="6">
         <v>801</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="7">
         <v>802</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="6">
         <v>803</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="6">
         <v>804</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="6">
         <v>805</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="6">
         <v>806</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="6">
         <v>807</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="6">
         <v>808</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="6">
         <v>809</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="6">
         <v>810</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="6">
         <v>811</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="6">
         <v>812</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="Z16" s="6">
         <v>813</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AA16" s="6">
         <v>814</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AB16" s="6">
         <v>815</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AC16" s="6">
         <v>816</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="6">
         <v>817</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AE16" s="6">
         <v>818</v>
       </c>
-      <c r="AF16" s="18" t="s">
+      <c r="AF16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AG16" s="6">
         <v>4094</v>
       </c>
-      <c r="AH16" s="18">
+      <c r="AH16" s="12">
         <v>4095</v>
       </c>
     </row>
     <row r="17" spans="10:34" x14ac:dyDescent="0.25">
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
       <c r="AH17" s="14"/>
     </row>
     <row r="18" spans="10:34" x14ac:dyDescent="0.25">
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="17" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="10:34" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19" s="6" t="s">
+    <row r="19" spans="10:34" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8" t="s">
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10" t="s">
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="11" t="s">
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="10" t="s">
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
